--- a/tests/data/spread-sheet/embedded_blank_in_goal_name_id.xlsx
+++ b/tests/data/spread-sheet/embedded_blank_in_goal_name_id.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t xml:space="preserve">ControlId</t>
   </si>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t xml:space="preserve">goal_name_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goal_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule_name_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule_version</t>
   </si>
   <si>
     <t xml:space="preserve">Parameter
@@ -580,19 +589,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="39.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="39.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="20.98"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -620,11 +629,20 @@
       <c r="L1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -632,59 +650,67 @@
         <v>3000036</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="K2" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
         <v>3000109</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H3" s="13"/>
       <c r="K3" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>18</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M3" s="10"/>
       <c r="N3" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -692,35 +718,40 @@
         <v>3000110</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H4" s="13"/>
       <c r="K4" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -728,73 +759,83 @@
         <v>3000403</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
         <v>3000409</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="M6" s="10"/>
       <c r="N6" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -802,103 +843,118 @@
         <v>3000410</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
+      <c r="N7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>3000450</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C8" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
+      <c r="N8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="144.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
         <v>3000603</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C9" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H9" s="10"/>
       <c r="K9" s="18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" s="10"/>
+      <c r="P9" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -906,55 +962,65 @@
         <v>3000721</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C10" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="K10" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="N10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
         <v>9000101</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C11" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
       <c r="K11" s="18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" s="10"/>
+      <c r="P11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
